--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -142,10 +142,10 @@
     <t>CARLOS ALBERTO DOS SANTOS</t>
   </si>
   <si>
-    <t>MARCOS JOSE ISEQUIEL DE FREITAS</t>
+    <t>DANIELLE YNAYA DA S BARBOZA</t>
   </si>
   <si>
-    <t> </t>
+    <t>MARCOS JOSE ISEQUIEL DE FREITAS</t>
   </si>
   <si>
     <t>2374</t>
@@ -160,10 +160,10 @@
     <t>3246</t>
   </si>
   <si>
-    <t>4201</t>
+    <t>3304</t>
   </si>
   <si>
-    <t> </t>
+    <t>4201</t>
   </si>
   <si>
     <t>SETOR IQ RECEBIMENTO</t>
@@ -3535,11 +3535,11 @@
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
+        <v>DANIELLE YNAYA DA S BARBOZA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3562,11 +3562,11 @@
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
+        <v>DANIELLE YNAYA DA S BARBOZA</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3586,11 +3586,11 @@
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
+        <v>DANIELLE YNAYA DA S BARBOZA</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
+        <v>DANIELLE YNAYA DA S BARBOZA</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3915,11 +3915,11 @@
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>4201</v>
+        <v>3304</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4201</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3942,11 +3942,11 @@
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>4201</v>
+        <v>3304</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4201</v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3966,11 +3966,11 @@
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4201</v>
+        <v>3304</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4201</v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3990,11 +3990,11 @@
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4201</v>
+        <v>3304</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4201</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6619,11 +6619,11 @@
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
+        <v>DANIELLE YNAYA DA S BARBOZA</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6644,11 +6644,11 @@
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
+        <v>DANIELLE YNAYA DA S BARBOZA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>MARCOS JOSE ISEQUIEL DE FREITAS</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6951,11 +6951,11 @@
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4201</v>
+        <v>3304</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4201</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6976,11 +6976,11 @@
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4201</v>
+        <v>3304</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4201</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -334,10 +334,10 @@
 RECEBIMENTO</t>
   </si>
   <si>
-    <t>GERSON R.DOS S.JUNIOR</t>
-  </si>
-  <si>
-    <t>Matr.: 2374</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <t>IQ_REC</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -153,9 +153,6 @@
     <t>GERSON R.DOS S.JUNIOR</t>
   </si>
   <si>
-    <t>JUNIOR REGIS F. DA SILVA</t>
-  </si>
-  <si>
     <t>ANDERSON CLEMENTINO DA SILVA</t>
   </si>
   <si>
@@ -240,12 +237,12 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>2374</t>
   </si>
   <si>
-    <t>2661</t>
-  </si>
-  <si>
     <t>3241</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>4201</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -153,6 +153,9 @@
     <t>GERSON R.DOS S.JUNIOR</t>
   </si>
   <si>
+    <t>JOEL FELIPE</t>
+  </si>
+  <si>
     <t>ANDERSON CLEMENTINO DA SILVA</t>
   </si>
   <si>
@@ -237,12 +240,12 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>2374</t>
   </si>
   <si>
+    <t>2561</t>
+  </si>
+  <si>
     <t>3241</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
   </si>
   <si>
     <t>4201</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -168,6 +168,9 @@
     <t>MARCOS JOSE ISEQUIEL DE FREITAS</t>
   </si>
   <si>
+    <t>JOAO VICTOR PEREIRA DE CANHA*</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>2374</t>
   </si>
   <si>
@@ -258,7 +258,7 @@
     <t>4201</t>
   </si>
   <si>
-    <t> </t>
+    <t>4277</t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -153,9 +153,6 @@
     <t>GERSON R.DOS S.JUNIOR</t>
   </si>
   <si>
-    <t>JOEL FELIPE</t>
-  </si>
-  <si>
     <t>ANDERSON CLEMENTINO DA SILVA</t>
   </si>
   <si>
@@ -240,12 +237,12 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>2374</t>
   </si>
   <si>
-    <t>2561</t>
-  </si>
-  <si>
     <t>3241</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>4277</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_REC.XLSX
@@ -153,6 +153,9 @@
     <t>GERSON R.DOS S.JUNIOR</t>
   </si>
   <si>
+    <t>JOEL FELIPE</t>
+  </si>
+  <si>
     <t>ANDERSON CLEMENTINO DA SILVA</t>
   </si>
   <si>
@@ -237,12 +240,12 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>2374</t>
   </si>
   <si>
+    <t>2561</t>
+  </si>
+  <si>
     <t>3241</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
   </si>
   <si>
     <t>4277</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
